--- a/page/eb11/t04/eb11-t04.xlsx
+++ b/page/eb11/t04/eb11-t04.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\production\eb11\t04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9257F70B-9783-4E24-968F-BA562455E416}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15855" windowHeight="11805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3225" yWindow="2115" windowWidth="23985" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="s05" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="203">
   <si>
     <t>image-fn.jp2</t>
   </si>
@@ -625,12 +624,21 @@
   </si>
   <si>
     <t>blank</t>
+  </si>
+  <si>
+    <t>Unconventional table structure requires additional attention</t>
+  </si>
+  <si>
+    <t>Double footnote</t>
+  </si>
+  <si>
+    <t>Complex equation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1005,12 +1013,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L263"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E187" sqref="E187"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E160" sqref="E160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,9 +1028,9 @@
     <col min="7" max="7" width="17" style="11" customWidth="1"/>
     <col min="8" max="8" width="12.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" style="11" customWidth="1"/>
-    <col min="12" max="12" width="27.42578125" customWidth="1"/>
+    <col min="12" max="12" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2288,7 +2296,9 @@
       <c r="I69" s="16"/>
       <c r="J69" s="5"/>
       <c r="K69" s="18"/>
-      <c r="L69" s="3"/>
+      <c r="L69" s="3" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
@@ -4248,7 +4258,9 @@
       <c r="I167" s="16"/>
       <c r="J167" s="5"/>
       <c r="K167" s="18"/>
-      <c r="L167" s="3"/>
+      <c r="L167" s="3" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
@@ -4468,7 +4480,9 @@
       <c r="I178" s="16"/>
       <c r="J178" s="5"/>
       <c r="K178" s="18"/>
-      <c r="L178" s="3"/>
+      <c r="L178" s="3" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
@@ -4508,7 +4522,9 @@
       <c r="I180" s="16"/>
       <c r="J180" s="5"/>
       <c r="K180" s="18"/>
-      <c r="L180" s="3"/>
+      <c r="L180" s="3" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
